--- a/Results/Categorization/dp-partial-ner.xlsx
+++ b/Results/Categorization/dp-partial-ner.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="1784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3251" uniqueCount="1787">
   <si>
     <t>id</t>
   </si>
@@ -4027,7 +4027,7 @@
     <t>FOOD|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|PRICES</t>
+    <t>SERVICE|FOOD|PRICES</t>
   </si>
   <si>
     <t>SERVICE|SERVICE|FOOD|FOOD</t>
@@ -4036,12 +4036,18 @@
     <t>FOOD|FOOD|FOOD</t>
   </si>
   <si>
+    <t>SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>SERVICE|FOOD</t>
   </si>
   <si>
-    <t>FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
@@ -4051,9 +4057,6 @@
     <t>AMBIENCE|SERVICE</t>
   </si>
   <si>
-    <t>FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|PRICES|FOOD|PRICES</t>
   </si>
   <si>
@@ -4069,7 +4072,7 @@
     <t>SERVICE|PRICES</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD|FOOD</t>
+    <t>AMBIENCE|FOOD|SERVICE</t>
   </si>
   <si>
     <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
@@ -4084,6 +4087,9 @@
     <t>FOOD|FOOD|FOOD|FOOD|AMBIENCE</t>
   </si>
   <si>
+    <t>FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
     <t>AMBIENCE|FOOD|FOOD|SERVICE</t>
   </si>
   <si>
@@ -4093,24 +4099,18 @@
     <t>FOOD|PRICES</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|AMBIENCE|SERVICE</t>
+    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|AMBIENCE|SERVICE</t>
   </si>
   <si>
     <t>FOOD|SERVICE</t>
   </si>
   <si>
-    <t>AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|PRICES|PRICES|FOOD|FOOD</t>
   </si>
   <si>
@@ -4120,7 +4120,7 @@
     <t>PRICES|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|AMBIENCE|FOOD|FOOD|FOOD</t>
+    <t>SERVICE|SERVICE|AMBIENCE|FOOD|SERVICE|FOOD</t>
   </si>
   <si>
     <t>PRICES|FOOD|FOOD</t>
@@ -4132,18 +4132,21 @@
     <t>FOOD|PRICES|FOOD</t>
   </si>
   <si>
+    <t>FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
-  </si>
-  <si>
     <t>SERVICE|FOOD|FOOD|FOOD</t>
   </si>
   <si>
@@ -4162,6 +4165,9 @@
     <t>PRICES|FOOD|SERVICE</t>
   </si>
   <si>
+    <t>SERVICE|FOOD|FOOD</t>
+  </si>
+  <si>
     <t>FOOD|SERVICE|AMBIENCE</t>
   </si>
   <si>
@@ -4171,6 +4177,9 @@
     <t>SERVICE|PRICES|PRICES|PRICES</t>
   </si>
   <si>
+    <t>PRICES|FOOD</t>
+  </si>
+  <si>
     <t>AMBIENCE|SERVICE|SERVICE</t>
   </si>
   <si>
@@ -4183,9 +4192,6 @@
     <t>AMBIENCE|SERVICE|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
-    <t>SERVICE|AMBIENCE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
     <t>FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD|FOOD</t>
   </si>
   <si>
@@ -4198,109 +4204,112 @@
     <t>PRICES|PRICES</t>
   </si>
   <si>
-    <t>PRICES|FOOD|AMBIENCE</t>
+    <t>PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|SERVICE|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|PRICES|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|SERVICE|FOOD</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|SERVICE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|SERVICE|SERVICE</t>
+  </si>
+  <si>
+    <t>SERVICE|PRICES|AMBIENCE</t>
   </si>
   <si>
     <t>SERVICE|FOOD|SERVICE|PRICES</t>
   </si>
   <si>
-    <t>FOOD|SERVICE|PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES</t>
+    <t>PRICES|FOOD|FOOD|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE</t>
+  </si>
+  <si>
+    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
+  </si>
+  <si>
+    <t>AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
+  </si>
+  <si>
+    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
+  </si>
+  <si>
+    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
+  </si>
+  <si>
+    <t>FOOD|PRICES|AMBIENCE|AMBIENCE</t>
   </si>
   <si>
     <t>PRICES|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>SERVICE|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|SERVICE|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|FOOD|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|SERVICE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|AMBIENCE|FOOD|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|SERVICE|AMBIENCE|SERVICE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|SERVICE|SERVICE</t>
-  </si>
-  <si>
-    <t>SERVICE|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>PRICES|FOOD|FOOD|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|AMBIENCE</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|FOOD</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|PRICES|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>PRICES|PRICES|FOOD|PRICES|FOOD</t>
-  </si>
-  <si>
-    <t>AMBIENCE|FOOD|FOOD|SERVICE|AMBIENCE|AMBIENCE|AMBIENCE|PRICES|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|FOOD|SERVICE|SERVICE|FOOD|SERVICE</t>
-  </si>
-  <si>
-    <t>FOOD|AMBIENCE|PRICES|PRICES</t>
-  </si>
-  <si>
-    <t>AMBIENCE|AMBIENCE|AMBIENCE|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|SERVICE|FOOD|FOOD|FOOD|AMBIENCE</t>
-  </si>
-  <si>
-    <t>FOOD|PRICES|FOOD|FOOD</t>
   </si>
   <si>
     <t>SERVICE|PRICES|FOOD</t>
@@ -5775,7 +5784,7 @@
         <v>1093</v>
       </c>
       <c r="H2" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -5798,10 +5807,10 @@
         <v>1336</v>
       </c>
       <c r="G3" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="H3" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -5824,10 +5833,10 @@
         <v>1336</v>
       </c>
       <c r="G4" t="s">
-        <v>1434</v>
+        <v>1437</v>
       </c>
       <c r="H4" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -5850,10 +5859,10 @@
         <v>1336</v>
       </c>
       <c r="G5" t="s">
-        <v>1435</v>
+        <v>1438</v>
       </c>
       <c r="H5" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -5876,10 +5885,10 @@
         <v>1337</v>
       </c>
       <c r="G6" t="s">
-        <v>1436</v>
+        <v>1439</v>
       </c>
       <c r="H6" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -5902,10 +5911,10 @@
         <v>1338</v>
       </c>
       <c r="G7" t="s">
-        <v>1437</v>
+        <v>1440</v>
       </c>
       <c r="H7" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -5928,10 +5937,10 @@
         <v>1336</v>
       </c>
       <c r="G8" t="s">
-        <v>1438</v>
+        <v>1441</v>
       </c>
       <c r="H8" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -5954,10 +5963,10 @@
         <v>1339</v>
       </c>
       <c r="G9" t="s">
-        <v>1439</v>
+        <v>1442</v>
       </c>
       <c r="H9" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -5980,10 +5989,10 @@
         <v>1293</v>
       </c>
       <c r="G10" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="H10" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -6006,10 +6015,10 @@
         <v>1340</v>
       </c>
       <c r="G11" t="s">
-        <v>1441</v>
+        <v>1444</v>
       </c>
       <c r="H11" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -6032,10 +6041,10 @@
         <v>1275</v>
       </c>
       <c r="G12" t="s">
-        <v>1442</v>
+        <v>1445</v>
       </c>
       <c r="H12" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -6058,10 +6067,10 @@
         <v>1341</v>
       </c>
       <c r="G13" t="s">
-        <v>1443</v>
+        <v>1446</v>
       </c>
       <c r="H13" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -6081,13 +6090,13 @@
         <v>1277</v>
       </c>
       <c r="F14" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="G14" t="s">
-        <v>1444</v>
+        <v>1447</v>
       </c>
       <c r="H14" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -6110,10 +6119,10 @@
         <v>1277</v>
       </c>
       <c r="G15" t="s">
-        <v>1445</v>
+        <v>1448</v>
       </c>
       <c r="H15" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -6136,10 +6145,10 @@
         <v>1284</v>
       </c>
       <c r="G16" t="s">
-        <v>1446</v>
+        <v>1449</v>
       </c>
       <c r="H16" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -6159,13 +6168,13 @@
         <v>1283</v>
       </c>
       <c r="F17" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G17" t="s">
-        <v>1447</v>
+        <v>1450</v>
       </c>
       <c r="H17" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -6185,13 +6194,13 @@
         <v>1276</v>
       </c>
       <c r="F18" t="s">
-        <v>1342</v>
+        <v>1344</v>
       </c>
       <c r="G18" t="s">
-        <v>1448</v>
+        <v>1451</v>
       </c>
       <c r="H18" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -6217,7 +6226,7 @@
         <v>952</v>
       </c>
       <c r="H19" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -6237,7 +6246,7 @@
         <v>1277</v>
       </c>
       <c r="H20" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -6263,7 +6272,7 @@
         <v>952</v>
       </c>
       <c r="H21" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -6289,7 +6298,7 @@
         <v>1124</v>
       </c>
       <c r="H22" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -6315,7 +6324,7 @@
         <v>937</v>
       </c>
       <c r="H23" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -6335,13 +6344,13 @@
         <v>1275</v>
       </c>
       <c r="F24" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G24" t="s">
-        <v>1449</v>
+        <v>1452</v>
       </c>
       <c r="H24" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -6361,13 +6370,13 @@
         <v>1275</v>
       </c>
       <c r="F25" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G25" t="s">
-        <v>1450</v>
+        <v>1453</v>
       </c>
       <c r="H25" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -6393,7 +6402,7 @@
         <v>937</v>
       </c>
       <c r="H26" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -6413,13 +6422,13 @@
         <v>1275</v>
       </c>
       <c r="F27" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G27" t="s">
-        <v>1451</v>
+        <v>1454</v>
       </c>
       <c r="H27" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -6439,13 +6448,13 @@
         <v>1277</v>
       </c>
       <c r="F28" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="G28" t="s">
-        <v>1452</v>
+        <v>1455</v>
       </c>
       <c r="H28" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -6471,7 +6480,7 @@
         <v>1000</v>
       </c>
       <c r="H29" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -6494,10 +6503,10 @@
         <v>1277</v>
       </c>
       <c r="G30" t="s">
-        <v>1453</v>
+        <v>1456</v>
       </c>
       <c r="H30" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -6517,13 +6526,13 @@
         <v>1278</v>
       </c>
       <c r="F31" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="G31" t="s">
-        <v>1454</v>
+        <v>1457</v>
       </c>
       <c r="H31" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -6543,13 +6552,13 @@
         <v>1283</v>
       </c>
       <c r="F32" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G32" t="s">
-        <v>1455</v>
+        <v>1458</v>
       </c>
       <c r="H32" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -6569,13 +6578,13 @@
         <v>1285</v>
       </c>
       <c r="F33" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G33" t="s">
-        <v>1456</v>
+        <v>1459</v>
       </c>
       <c r="H33" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -6601,7 +6610,7 @@
         <v>937</v>
       </c>
       <c r="H34" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -6627,7 +6636,7 @@
         <v>963</v>
       </c>
       <c r="H35" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -6653,7 +6662,7 @@
         <v>937</v>
       </c>
       <c r="H36" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -6673,13 +6682,13 @@
         <v>1286</v>
       </c>
       <c r="F37" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G37" t="s">
-        <v>1457</v>
+        <v>1460</v>
       </c>
       <c r="H37" t="s">
-        <v>1757</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -6699,13 +6708,13 @@
         <v>1275</v>
       </c>
       <c r="F38" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G38" t="s">
-        <v>1458</v>
+        <v>1461</v>
       </c>
       <c r="H38" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -6731,7 +6740,7 @@
         <v>966</v>
       </c>
       <c r="H39" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -6757,7 +6766,7 @@
         <v>937</v>
       </c>
       <c r="H40" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -6777,13 +6786,13 @@
         <v>1284</v>
       </c>
       <c r="F41" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G41" t="s">
-        <v>1459</v>
+        <v>1462</v>
       </c>
       <c r="H41" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -6803,13 +6812,13 @@
         <v>1284</v>
       </c>
       <c r="F42" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G42" t="s">
-        <v>1460</v>
+        <v>1463</v>
       </c>
       <c r="H42" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -6829,13 +6838,13 @@
         <v>1279</v>
       </c>
       <c r="F43" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="G43" t="s">
-        <v>1461</v>
+        <v>1464</v>
       </c>
       <c r="H43" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -6858,10 +6867,10 @@
         <v>1339</v>
       </c>
       <c r="G44" t="s">
-        <v>1462</v>
+        <v>1465</v>
       </c>
       <c r="H44" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -6881,13 +6890,13 @@
         <v>1284</v>
       </c>
       <c r="F45" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G45" t="s">
-        <v>1463</v>
+        <v>1466</v>
       </c>
       <c r="H45" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -6913,7 +6922,7 @@
         <v>972</v>
       </c>
       <c r="H46" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -6936,10 +6945,10 @@
         <v>1339</v>
       </c>
       <c r="G47" t="s">
-        <v>1464</v>
+        <v>1467</v>
       </c>
       <c r="H47" t="s">
-        <v>1758</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -6959,13 +6968,13 @@
         <v>1288</v>
       </c>
       <c r="F48" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G48" t="s">
-        <v>1465</v>
+        <v>1468</v>
       </c>
       <c r="H48" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -6988,10 +6997,10 @@
         <v>1336</v>
       </c>
       <c r="G49" t="s">
-        <v>1466</v>
+        <v>1469</v>
       </c>
       <c r="H49" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -7017,7 +7026,7 @@
         <v>993</v>
       </c>
       <c r="H50" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -7040,10 +7049,10 @@
         <v>1336</v>
       </c>
       <c r="G51" t="s">
-        <v>1467</v>
+        <v>1470</v>
       </c>
       <c r="H51" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -7063,13 +7072,13 @@
         <v>1277</v>
       </c>
       <c r="F52" t="s">
-        <v>1339</v>
+        <v>1357</v>
       </c>
       <c r="G52" t="s">
-        <v>1468</v>
+        <v>1471</v>
       </c>
       <c r="H52" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -7089,13 +7098,13 @@
         <v>1281</v>
       </c>
       <c r="F53" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G53" t="s">
-        <v>1469</v>
+        <v>1472</v>
       </c>
       <c r="H53" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -7118,10 +7127,10 @@
         <v>1339</v>
       </c>
       <c r="G54" t="s">
-        <v>1470</v>
+        <v>1473</v>
       </c>
       <c r="H54" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -7144,10 +7153,10 @@
         <v>1336</v>
       </c>
       <c r="G55" t="s">
-        <v>1471</v>
+        <v>1474</v>
       </c>
       <c r="H55" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -7170,10 +7179,10 @@
         <v>1336</v>
       </c>
       <c r="G56" t="s">
-        <v>1472</v>
+        <v>1475</v>
       </c>
       <c r="H56" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -7193,13 +7202,13 @@
         <v>1289</v>
       </c>
       <c r="F57" t="s">
-        <v>1356</v>
+        <v>1358</v>
       </c>
       <c r="G57" t="s">
-        <v>1473</v>
+        <v>1476</v>
       </c>
       <c r="H57" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -7219,13 +7228,13 @@
         <v>1290</v>
       </c>
       <c r="F58" t="s">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="G58" t="s">
-        <v>1474</v>
+        <v>1477</v>
       </c>
       <c r="H58" t="s">
-        <v>1762</v>
+        <v>1765</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -7245,13 +7254,13 @@
         <v>1275</v>
       </c>
       <c r="F59" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G59" t="s">
-        <v>1475</v>
+        <v>1478</v>
       </c>
       <c r="H59" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -7271,13 +7280,13 @@
         <v>1278</v>
       </c>
       <c r="F60" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G60" t="s">
-        <v>1476</v>
+        <v>1479</v>
       </c>
       <c r="H60" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -7297,13 +7306,13 @@
         <v>1291</v>
       </c>
       <c r="F61" t="s">
-        <v>1359</v>
+        <v>1361</v>
       </c>
       <c r="G61" t="s">
-        <v>1477</v>
+        <v>1480</v>
       </c>
       <c r="H61" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -7323,13 +7332,13 @@
         <v>1275</v>
       </c>
       <c r="F62" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="G62" t="s">
-        <v>1478</v>
+        <v>1481</v>
       </c>
       <c r="H62" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -7349,13 +7358,13 @@
         <v>1277</v>
       </c>
       <c r="F63" t="s">
-        <v>1336</v>
+        <v>1362</v>
       </c>
       <c r="G63" t="s">
-        <v>1479</v>
+        <v>1482</v>
       </c>
       <c r="H63" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -7375,13 +7384,13 @@
         <v>1289</v>
       </c>
       <c r="F64" t="s">
-        <v>1361</v>
+        <v>1363</v>
       </c>
       <c r="G64" t="s">
-        <v>1480</v>
+        <v>1483</v>
       </c>
       <c r="H64" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -7401,13 +7410,13 @@
         <v>1275</v>
       </c>
       <c r="F65" t="s">
-        <v>1340</v>
+        <v>1346</v>
       </c>
       <c r="G65" t="s">
-        <v>1481</v>
+        <v>1484</v>
       </c>
       <c r="H65" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -7430,10 +7439,10 @@
         <v>1336</v>
       </c>
       <c r="G66" t="s">
-        <v>1482</v>
+        <v>1485</v>
       </c>
       <c r="H66" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -7459,7 +7468,7 @@
         <v>952</v>
       </c>
       <c r="H67" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -7485,7 +7494,7 @@
         <v>991</v>
       </c>
       <c r="H68" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -7511,7 +7520,7 @@
         <v>993</v>
       </c>
       <c r="H69" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -7537,7 +7546,7 @@
         <v>993</v>
       </c>
       <c r="H70" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -7560,10 +7569,10 @@
         <v>1277</v>
       </c>
       <c r="G71" t="s">
-        <v>1483</v>
+        <v>1486</v>
       </c>
       <c r="H71" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -7583,13 +7592,13 @@
         <v>1277</v>
       </c>
       <c r="F72" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G72" t="s">
-        <v>1484</v>
+        <v>1487</v>
       </c>
       <c r="H72" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -7612,10 +7621,10 @@
         <v>1339</v>
       </c>
       <c r="G73" t="s">
-        <v>1485</v>
+        <v>1488</v>
       </c>
       <c r="H73" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -7635,13 +7644,13 @@
         <v>1295</v>
       </c>
       <c r="F74" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G74" t="s">
-        <v>1486</v>
+        <v>1489</v>
       </c>
       <c r="H74" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -7667,7 +7676,7 @@
         <v>952</v>
       </c>
       <c r="H75" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -7687,13 +7696,13 @@
         <v>1283</v>
       </c>
       <c r="F76" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G76" t="s">
-        <v>1487</v>
+        <v>1490</v>
       </c>
       <c r="H76" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -7719,7 +7728,7 @@
         <v>989</v>
       </c>
       <c r="H77" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -7745,7 +7754,7 @@
         <v>999</v>
       </c>
       <c r="H78" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -7768,10 +7777,10 @@
         <v>1336</v>
       </c>
       <c r="G79" t="s">
-        <v>1488</v>
+        <v>1491</v>
       </c>
       <c r="H79" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -7791,13 +7800,13 @@
         <v>1288</v>
       </c>
       <c r="F80" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G80" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="H80" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -7820,10 +7829,10 @@
         <v>1336</v>
       </c>
       <c r="G81" t="s">
-        <v>1490</v>
+        <v>1493</v>
       </c>
       <c r="H81" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -7849,7 +7858,7 @@
         <v>937</v>
       </c>
       <c r="H82" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -7872,10 +7881,10 @@
         <v>1336</v>
       </c>
       <c r="G83" t="s">
-        <v>1491</v>
+        <v>1494</v>
       </c>
       <c r="H83" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -7901,7 +7910,7 @@
         <v>1069</v>
       </c>
       <c r="H84" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -7927,7 +7936,7 @@
         <v>937</v>
       </c>
       <c r="H85" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -7947,13 +7956,13 @@
         <v>1277</v>
       </c>
       <c r="F86" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G86" t="s">
-        <v>1492</v>
+        <v>1495</v>
       </c>
       <c r="H86" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -7976,10 +7985,10 @@
         <v>1336</v>
       </c>
       <c r="G87" t="s">
-        <v>1493</v>
+        <v>1496</v>
       </c>
       <c r="H87" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -8002,10 +8011,10 @@
         <v>1277</v>
       </c>
       <c r="G88" t="s">
-        <v>1494</v>
+        <v>1497</v>
       </c>
       <c r="H88" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -8025,13 +8034,13 @@
         <v>1284</v>
       </c>
       <c r="F89" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G89" t="s">
-        <v>1495</v>
+        <v>1498</v>
       </c>
       <c r="H89" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -8051,13 +8060,13 @@
         <v>1283</v>
       </c>
       <c r="F90" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G90" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H90" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -8080,10 +8089,10 @@
         <v>1336</v>
       </c>
       <c r="G91" t="s">
-        <v>1497</v>
+        <v>1500</v>
       </c>
       <c r="H91" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -8103,13 +8112,13 @@
         <v>1297</v>
       </c>
       <c r="F92" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G92" t="s">
-        <v>1498</v>
+        <v>1501</v>
       </c>
       <c r="H92" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -8132,10 +8141,10 @@
         <v>1365</v>
       </c>
       <c r="G93" t="s">
-        <v>1499</v>
+        <v>1502</v>
       </c>
       <c r="H93" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -8158,10 +8167,10 @@
         <v>1336</v>
       </c>
       <c r="G94" t="s">
-        <v>1500</v>
+        <v>1503</v>
       </c>
       <c r="H94" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -8181,13 +8190,13 @@
         <v>1276</v>
       </c>
       <c r="F95" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G95" t="s">
-        <v>1501</v>
+        <v>1504</v>
       </c>
       <c r="H95" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -8207,13 +8216,13 @@
         <v>1288</v>
       </c>
       <c r="F96" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G96" t="s">
-        <v>1502</v>
+        <v>1505</v>
       </c>
       <c r="H96" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -8236,10 +8245,10 @@
         <v>1366</v>
       </c>
       <c r="G97" t="s">
-        <v>1503</v>
+        <v>1506</v>
       </c>
       <c r="H97" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -8259,13 +8268,13 @@
         <v>1277</v>
       </c>
       <c r="F98" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G98" t="s">
-        <v>1504</v>
+        <v>1507</v>
       </c>
       <c r="H98" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -8288,10 +8297,10 @@
         <v>1336</v>
       </c>
       <c r="G99" t="s">
-        <v>1505</v>
+        <v>1508</v>
       </c>
       <c r="H99" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -8314,10 +8323,10 @@
         <v>1275</v>
       </c>
       <c r="G100" t="s">
-        <v>1506</v>
+        <v>1509</v>
       </c>
       <c r="H100" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -8343,7 +8352,7 @@
         <v>1109</v>
       </c>
       <c r="H101" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -8366,10 +8375,10 @@
         <v>1277</v>
       </c>
       <c r="G102" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H102" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -8392,10 +8401,10 @@
         <v>1336</v>
       </c>
       <c r="G103" t="s">
-        <v>1508</v>
+        <v>1511</v>
       </c>
       <c r="H103" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -8418,10 +8427,10 @@
         <v>1367</v>
       </c>
       <c r="G104" t="s">
-        <v>1509</v>
+        <v>1512</v>
       </c>
       <c r="H104" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -8444,10 +8453,10 @@
         <v>1284</v>
       </c>
       <c r="G105" t="s">
-        <v>1510</v>
+        <v>1513</v>
       </c>
       <c r="H105" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -8473,7 +8482,7 @@
         <v>972</v>
       </c>
       <c r="H106" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -8493,13 +8502,13 @@
         <v>1276</v>
       </c>
       <c r="F107" t="s">
-        <v>1339</v>
+        <v>1342</v>
       </c>
       <c r="G107" t="s">
-        <v>1511</v>
+        <v>1514</v>
       </c>
       <c r="H107" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -8525,7 +8534,7 @@
         <v>935</v>
       </c>
       <c r="H108" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -8548,10 +8557,10 @@
         <v>1336</v>
       </c>
       <c r="G109" t="s">
-        <v>1512</v>
+        <v>1515</v>
       </c>
       <c r="H109" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -8574,10 +8583,10 @@
         <v>1368</v>
       </c>
       <c r="G110" t="s">
-        <v>1513</v>
+        <v>1516</v>
       </c>
       <c r="H110" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -8597,13 +8606,13 @@
         <v>1295</v>
       </c>
       <c r="F111" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G111" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="H111" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -8626,10 +8635,10 @@
         <v>1277</v>
       </c>
       <c r="G112" t="s">
-        <v>1515</v>
+        <v>1518</v>
       </c>
       <c r="H112" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -8655,7 +8664,7 @@
         <v>1029</v>
       </c>
       <c r="H113" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -8681,7 +8690,7 @@
         <v>937</v>
       </c>
       <c r="H114" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -8704,10 +8713,10 @@
         <v>1339</v>
       </c>
       <c r="G115" t="s">
-        <v>1516</v>
+        <v>1519</v>
       </c>
       <c r="H115" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -8733,7 +8742,7 @@
         <v>1069</v>
       </c>
       <c r="H116" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -8759,7 +8768,7 @@
         <v>952</v>
       </c>
       <c r="H117" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -8779,13 +8788,13 @@
         <v>1295</v>
       </c>
       <c r="F118" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G118" t="s">
-        <v>1514</v>
+        <v>1517</v>
       </c>
       <c r="H118" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -8808,10 +8817,10 @@
         <v>1341</v>
       </c>
       <c r="G119" t="s">
-        <v>1517</v>
+        <v>1520</v>
       </c>
       <c r="H119" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -8834,10 +8843,10 @@
         <v>1339</v>
       </c>
       <c r="G120" t="s">
-        <v>1518</v>
+        <v>1521</v>
       </c>
       <c r="H120" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -8857,13 +8866,13 @@
         <v>1295</v>
       </c>
       <c r="F121" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G121" t="s">
-        <v>1519</v>
+        <v>1522</v>
       </c>
       <c r="H121" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -8886,10 +8895,10 @@
         <v>1336</v>
       </c>
       <c r="G122" t="s">
-        <v>1520</v>
+        <v>1523</v>
       </c>
       <c r="H122" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -8912,10 +8921,10 @@
         <v>1369</v>
       </c>
       <c r="G123" t="s">
-        <v>1521</v>
+        <v>1524</v>
       </c>
       <c r="H123" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -8938,10 +8947,10 @@
         <v>1370</v>
       </c>
       <c r="G124" t="s">
-        <v>1522</v>
+        <v>1525</v>
       </c>
       <c r="H124" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -8967,7 +8976,7 @@
         <v>935</v>
       </c>
       <c r="H125" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -8990,10 +8999,10 @@
         <v>1371</v>
       </c>
       <c r="G126" t="s">
-        <v>1523</v>
+        <v>1526</v>
       </c>
       <c r="H126" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -9019,7 +9028,7 @@
         <v>1039</v>
       </c>
       <c r="H127" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -9039,13 +9048,13 @@
         <v>1277</v>
       </c>
       <c r="F128" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G128" t="s">
-        <v>1524</v>
+        <v>1527</v>
       </c>
       <c r="H128" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -9068,10 +9077,10 @@
         <v>1336</v>
       </c>
       <c r="G129" t="s">
-        <v>1525</v>
+        <v>1528</v>
       </c>
       <c r="H129" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -9094,10 +9103,10 @@
         <v>1336</v>
       </c>
       <c r="G130" t="s">
-        <v>1526</v>
+        <v>1529</v>
       </c>
       <c r="H130" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -9123,7 +9132,7 @@
         <v>952</v>
       </c>
       <c r="H131" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -9146,10 +9155,10 @@
         <v>1336</v>
       </c>
       <c r="G132" t="s">
-        <v>1527</v>
+        <v>1530</v>
       </c>
       <c r="H132" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -9169,13 +9178,13 @@
         <v>1276</v>
       </c>
       <c r="F133" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G133" t="s">
-        <v>1528</v>
+        <v>1531</v>
       </c>
       <c r="H133" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -9198,10 +9207,10 @@
         <v>1372</v>
       </c>
       <c r="G134" t="s">
-        <v>1529</v>
+        <v>1532</v>
       </c>
       <c r="H134" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -9224,10 +9233,10 @@
         <v>1373</v>
       </c>
       <c r="G135" t="s">
-        <v>1530</v>
+        <v>1533</v>
       </c>
       <c r="H135" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -9253,7 +9262,7 @@
         <v>1241</v>
       </c>
       <c r="H136" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -9279,7 +9288,7 @@
         <v>937</v>
       </c>
       <c r="H137" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -9299,13 +9308,13 @@
         <v>1297</v>
       </c>
       <c r="F138" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G138" t="s">
-        <v>1531</v>
+        <v>1534</v>
       </c>
       <c r="H138" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -9328,10 +9337,10 @@
         <v>1374</v>
       </c>
       <c r="G139" t="s">
-        <v>1532</v>
+        <v>1535</v>
       </c>
       <c r="H139" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -9357,7 +9366,7 @@
         <v>1050</v>
       </c>
       <c r="H140" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -9377,13 +9386,13 @@
         <v>1284</v>
       </c>
       <c r="F141" t="s">
-        <v>1354</v>
+        <v>1348</v>
       </c>
       <c r="G141" t="s">
-        <v>1533</v>
+        <v>1536</v>
       </c>
       <c r="H141" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -9406,10 +9415,10 @@
         <v>1375</v>
       </c>
       <c r="G142" t="s">
-        <v>1534</v>
+        <v>1537</v>
       </c>
       <c r="H142" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -9435,7 +9444,7 @@
         <v>1029</v>
       </c>
       <c r="H143" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -9455,13 +9464,13 @@
         <v>1297</v>
       </c>
       <c r="F144" t="s">
-        <v>1372</v>
+        <v>1376</v>
       </c>
       <c r="G144" t="s">
-        <v>1535</v>
+        <v>1538</v>
       </c>
       <c r="H144" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -9481,13 +9490,13 @@
         <v>1281</v>
       </c>
       <c r="F145" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G145" t="s">
-        <v>1536</v>
+        <v>1539</v>
       </c>
       <c r="H145" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -9513,7 +9522,7 @@
         <v>1054</v>
       </c>
       <c r="H146" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -9533,13 +9542,13 @@
         <v>1277</v>
       </c>
       <c r="F147" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G147" t="s">
-        <v>1537</v>
+        <v>1540</v>
       </c>
       <c r="H147" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -9559,13 +9568,13 @@
         <v>1283</v>
       </c>
       <c r="F148" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G148" t="s">
-        <v>1538</v>
+        <v>1541</v>
       </c>
       <c r="H148" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -9588,10 +9597,10 @@
         <v>1339</v>
       </c>
       <c r="G149" t="s">
-        <v>1539</v>
+        <v>1542</v>
       </c>
       <c r="H149" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -9611,13 +9620,13 @@
         <v>1281</v>
       </c>
       <c r="F150" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="G150" t="s">
-        <v>1540</v>
+        <v>1543</v>
       </c>
       <c r="H150" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -9637,13 +9646,13 @@
         <v>1301</v>
       </c>
       <c r="F151" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G151" t="s">
-        <v>1541</v>
+        <v>1544</v>
       </c>
       <c r="H151" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -9669,7 +9678,7 @@
         <v>935</v>
       </c>
       <c r="H152" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -9692,10 +9701,10 @@
         <v>1339</v>
       </c>
       <c r="G153" t="s">
-        <v>1542</v>
+        <v>1545</v>
       </c>
       <c r="H153" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -9718,10 +9727,10 @@
         <v>1336</v>
       </c>
       <c r="G154" t="s">
-        <v>1543</v>
+        <v>1546</v>
       </c>
       <c r="H154" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -9744,10 +9753,10 @@
         <v>1366</v>
       </c>
       <c r="G155" t="s">
-        <v>1544</v>
+        <v>1547</v>
       </c>
       <c r="H155" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -9767,13 +9776,13 @@
         <v>1302</v>
       </c>
       <c r="F156" t="s">
-        <v>1379</v>
+        <v>1380</v>
       </c>
       <c r="G156" t="s">
-        <v>1545</v>
+        <v>1548</v>
       </c>
       <c r="H156" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -9796,10 +9805,10 @@
         <v>1336</v>
       </c>
       <c r="G157" t="s">
-        <v>1546</v>
+        <v>1549</v>
       </c>
       <c r="H157" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -9819,13 +9828,13 @@
         <v>1303</v>
       </c>
       <c r="F158" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G158" t="s">
-        <v>1547</v>
+        <v>1550</v>
       </c>
       <c r="H158" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -9848,10 +9857,10 @@
         <v>1339</v>
       </c>
       <c r="G159" t="s">
-        <v>1548</v>
+        <v>1551</v>
       </c>
       <c r="H159" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -9871,13 +9880,13 @@
         <v>1277</v>
       </c>
       <c r="F160" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G160" t="s">
-        <v>1549</v>
+        <v>1552</v>
       </c>
       <c r="H160" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -9903,7 +9912,7 @@
         <v>1066</v>
       </c>
       <c r="H161" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -9926,10 +9935,10 @@
         <v>1277</v>
       </c>
       <c r="G162" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="H162" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -9949,13 +9958,13 @@
         <v>1284</v>
       </c>
       <c r="F163" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="G163" t="s">
-        <v>1551</v>
+        <v>1554</v>
       </c>
       <c r="H163" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -9981,7 +9990,7 @@
         <v>1069</v>
       </c>
       <c r="H164" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -10007,7 +10016,7 @@
         <v>1099</v>
       </c>
       <c r="H165" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -10033,7 +10042,7 @@
         <v>1066</v>
       </c>
       <c r="H166" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -10059,7 +10068,7 @@
         <v>1066</v>
       </c>
       <c r="H167" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -10085,7 +10094,7 @@
         <v>980</v>
       </c>
       <c r="H168" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -10111,7 +10120,7 @@
         <v>1000</v>
       </c>
       <c r="H169" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -10131,13 +10140,13 @@
         <v>1285</v>
       </c>
       <c r="F170" t="s">
-        <v>1369</v>
+        <v>1339</v>
       </c>
       <c r="G170" t="s">
-        <v>1552</v>
+        <v>1555</v>
       </c>
       <c r="H170" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -10160,10 +10169,10 @@
         <v>1277</v>
       </c>
       <c r="G171" t="s">
-        <v>1553</v>
+        <v>1556</v>
       </c>
       <c r="H171" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -10186,10 +10195,10 @@
         <v>1336</v>
       </c>
       <c r="G172" t="s">
-        <v>1554</v>
+        <v>1557</v>
       </c>
       <c r="H172" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -10209,13 +10218,13 @@
         <v>1304</v>
       </c>
       <c r="F173" t="s">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="G173" t="s">
-        <v>1555</v>
+        <v>1558</v>
       </c>
       <c r="H173" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -10241,7 +10250,7 @@
         <v>1069</v>
       </c>
       <c r="H174" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -10264,10 +10273,10 @@
         <v>1293</v>
       </c>
       <c r="G175" t="s">
-        <v>1440</v>
+        <v>1443</v>
       </c>
       <c r="H175" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -10290,10 +10299,10 @@
         <v>1339</v>
       </c>
       <c r="G176" t="s">
-        <v>1556</v>
+        <v>1559</v>
       </c>
       <c r="H176" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -10316,10 +10325,10 @@
         <v>1277</v>
       </c>
       <c r="G177" t="s">
-        <v>1557</v>
+        <v>1560</v>
       </c>
       <c r="H177" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -10342,10 +10351,10 @@
         <v>1336</v>
       </c>
       <c r="G178" t="s">
-        <v>1558</v>
+        <v>1561</v>
       </c>
       <c r="H178" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -10368,10 +10377,10 @@
         <v>1339</v>
       </c>
       <c r="G179" t="s">
-        <v>1559</v>
+        <v>1562</v>
       </c>
       <c r="H179" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -10391,13 +10400,13 @@
         <v>1306</v>
       </c>
       <c r="F180" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G180" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="H180" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -10417,13 +10426,13 @@
         <v>1275</v>
       </c>
       <c r="F181" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G181" t="s">
-        <v>1560</v>
+        <v>1563</v>
       </c>
       <c r="H181" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -10443,13 +10452,13 @@
         <v>1283</v>
       </c>
       <c r="F182" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G182" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H182" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -10469,13 +10478,13 @@
         <v>1307</v>
       </c>
       <c r="F183" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G183" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H183" t="s">
-        <v>1770</v>
+        <v>1773</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -10495,13 +10504,13 @@
         <v>1308</v>
       </c>
       <c r="F184" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G184" t="s">
-        <v>1561</v>
+        <v>1564</v>
       </c>
       <c r="H184" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -10521,13 +10530,13 @@
         <v>1292</v>
       </c>
       <c r="F185" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="G185" t="s">
-        <v>1562</v>
+        <v>1565</v>
       </c>
       <c r="H185" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -10550,10 +10559,10 @@
         <v>1375</v>
       </c>
       <c r="G186" t="s">
-        <v>1563</v>
+        <v>1566</v>
       </c>
       <c r="H186" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -10573,13 +10582,13 @@
         <v>1277</v>
       </c>
       <c r="F187" t="s">
-        <v>1339</v>
+        <v>1383</v>
       </c>
       <c r="G187" t="s">
-        <v>1564</v>
+        <v>1567</v>
       </c>
       <c r="H187" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -10605,7 +10614,7 @@
         <v>1090</v>
       </c>
       <c r="H188" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -10628,10 +10637,10 @@
         <v>1277</v>
       </c>
       <c r="G189" t="s">
-        <v>1565</v>
+        <v>1568</v>
       </c>
       <c r="H189" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -10651,13 +10660,13 @@
         <v>1309</v>
       </c>
       <c r="F190" t="s">
-        <v>1357</v>
+        <v>1340</v>
       </c>
       <c r="G190" t="s">
-        <v>1566</v>
+        <v>1569</v>
       </c>
       <c r="H190" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -10683,7 +10692,7 @@
         <v>1093</v>
       </c>
       <c r="H191" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -10709,7 +10718,7 @@
         <v>937</v>
       </c>
       <c r="H192" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -10735,7 +10744,7 @@
         <v>993</v>
       </c>
       <c r="H193" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -10761,7 +10770,7 @@
         <v>1099</v>
       </c>
       <c r="H194" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -10787,7 +10796,7 @@
         <v>937</v>
       </c>
       <c r="H195" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -10810,10 +10819,10 @@
         <v>1339</v>
       </c>
       <c r="G196" t="s">
-        <v>1567</v>
+        <v>1570</v>
       </c>
       <c r="H196" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -10833,13 +10842,13 @@
         <v>1310</v>
       </c>
       <c r="F197" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="G197" t="s">
-        <v>1568</v>
+        <v>1571</v>
       </c>
       <c r="H197" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -10859,13 +10868,13 @@
         <v>1283</v>
       </c>
       <c r="F198" t="s">
-        <v>1382</v>
+        <v>1384</v>
       </c>
       <c r="G198" t="s">
-        <v>1569</v>
+        <v>1572</v>
       </c>
       <c r="H198" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -10888,10 +10897,10 @@
         <v>1336</v>
       </c>
       <c r="G199" t="s">
-        <v>1570</v>
+        <v>1573</v>
       </c>
       <c r="H199" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -10917,7 +10926,7 @@
         <v>972</v>
       </c>
       <c r="H200" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -10943,7 +10952,7 @@
         <v>1099</v>
       </c>
       <c r="H201" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -10969,7 +10978,7 @@
         <v>1000</v>
       </c>
       <c r="H202" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -10989,7 +10998,7 @@
         <v>1296</v>
       </c>
       <c r="H203" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -11009,13 +11018,13 @@
         <v>1277</v>
       </c>
       <c r="F204" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="G204" t="s">
-        <v>1571</v>
+        <v>1574</v>
       </c>
       <c r="H204" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -11041,7 +11050,7 @@
         <v>1050</v>
       </c>
       <c r="H205" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -11061,13 +11070,13 @@
         <v>1284</v>
       </c>
       <c r="F206" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G206" t="s">
-        <v>1572</v>
+        <v>1575</v>
       </c>
       <c r="H206" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -11087,13 +11096,13 @@
         <v>1308</v>
       </c>
       <c r="F207" t="s">
-        <v>1383</v>
+        <v>1385</v>
       </c>
       <c r="G207" t="s">
-        <v>1573</v>
+        <v>1576</v>
       </c>
       <c r="H207" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -11119,7 +11128,7 @@
         <v>1093</v>
       </c>
       <c r="H208" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -11142,10 +11151,10 @@
         <v>1336</v>
       </c>
       <c r="G209" t="s">
-        <v>1574</v>
+        <v>1577</v>
       </c>
       <c r="H209" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -11168,10 +11177,10 @@
         <v>1277</v>
       </c>
       <c r="G210" t="s">
-        <v>1575</v>
+        <v>1578</v>
       </c>
       <c r="H210" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -11191,13 +11200,13 @@
         <v>1275</v>
       </c>
       <c r="F211" t="s">
-        <v>1384</v>
+        <v>1386</v>
       </c>
       <c r="G211" t="s">
-        <v>1576</v>
+        <v>1579</v>
       </c>
       <c r="H211" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -11217,13 +11226,13 @@
         <v>1275</v>
       </c>
       <c r="F212" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G212" t="s">
-        <v>1577</v>
+        <v>1580</v>
       </c>
       <c r="H212" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -11243,13 +11252,13 @@
         <v>1277</v>
       </c>
       <c r="F213" t="s">
-        <v>1336</v>
+        <v>1387</v>
       </c>
       <c r="G213" t="s">
-        <v>1578</v>
+        <v>1581</v>
       </c>
       <c r="H213" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -11272,10 +11281,10 @@
         <v>1339</v>
       </c>
       <c r="G214" t="s">
-        <v>1579</v>
+        <v>1582</v>
       </c>
       <c r="H214" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -11298,10 +11307,10 @@
         <v>1277</v>
       </c>
       <c r="G215" t="s">
-        <v>1550</v>
+        <v>1553</v>
       </c>
       <c r="H215" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -11321,13 +11330,13 @@
         <v>1310</v>
       </c>
       <c r="F216" t="s">
-        <v>1385</v>
+        <v>1388</v>
       </c>
       <c r="G216" t="s">
-        <v>1580</v>
+        <v>1583</v>
       </c>
       <c r="H216" t="s">
-        <v>1771</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -11347,13 +11356,13 @@
         <v>1277</v>
       </c>
       <c r="F217" t="s">
-        <v>1340</v>
+        <v>1362</v>
       </c>
       <c r="G217" t="s">
-        <v>1581</v>
+        <v>1584</v>
       </c>
       <c r="H217" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -11379,7 +11388,7 @@
         <v>1110</v>
       </c>
       <c r="H218" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -11399,13 +11408,13 @@
         <v>1295</v>
       </c>
       <c r="F219" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G219" t="s">
-        <v>1582</v>
+        <v>1585</v>
       </c>
       <c r="H219" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -11428,10 +11437,10 @@
         <v>1339</v>
       </c>
       <c r="G220" t="s">
-        <v>1583</v>
+        <v>1586</v>
       </c>
       <c r="H220" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -11451,13 +11460,13 @@
         <v>1310</v>
       </c>
       <c r="F221" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G221" t="s">
-        <v>1584</v>
+        <v>1587</v>
       </c>
       <c r="H221" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -11477,13 +11486,13 @@
         <v>1284</v>
       </c>
       <c r="F222" t="s">
-        <v>1351</v>
+        <v>1342</v>
       </c>
       <c r="G222" t="s">
-        <v>1585</v>
+        <v>1588</v>
       </c>
       <c r="H222" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -11503,13 +11512,13 @@
         <v>1309</v>
       </c>
       <c r="F223" t="s">
-        <v>1387</v>
+        <v>1390</v>
       </c>
       <c r="G223" t="s">
-        <v>1586</v>
+        <v>1589</v>
       </c>
       <c r="H223" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -11529,13 +11538,13 @@
         <v>1312</v>
       </c>
       <c r="F224" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="G224" t="s">
-        <v>1587</v>
+        <v>1590</v>
       </c>
       <c r="H224" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -11555,13 +11564,13 @@
         <v>1275</v>
       </c>
       <c r="F225" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G225" t="s">
-        <v>1588</v>
+        <v>1591</v>
       </c>
       <c r="H225" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -11581,13 +11590,13 @@
         <v>1310</v>
       </c>
       <c r="F226" t="s">
-        <v>1389</v>
+        <v>1361</v>
       </c>
       <c r="G226" t="s">
-        <v>1589</v>
+        <v>1592</v>
       </c>
       <c r="H226" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -11607,13 +11616,13 @@
         <v>1313</v>
       </c>
       <c r="F227" t="s">
-        <v>1390</v>
+        <v>1392</v>
       </c>
       <c r="G227" t="s">
-        <v>1590</v>
+        <v>1593</v>
       </c>
       <c r="H227" t="s">
-        <v>1773</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -11633,13 +11642,13 @@
         <v>1284</v>
       </c>
       <c r="F228" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G228" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="H228" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -11665,7 +11674,7 @@
         <v>1093</v>
       </c>
       <c r="H229" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -11691,7 +11700,7 @@
         <v>935</v>
       </c>
       <c r="H230" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -11717,7 +11726,7 @@
         <v>1093</v>
       </c>
       <c r="H231" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -11740,10 +11749,10 @@
         <v>1284</v>
       </c>
       <c r="G232" t="s">
-        <v>1592</v>
+        <v>1595</v>
       </c>
       <c r="H232" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -11769,7 +11778,7 @@
         <v>952</v>
       </c>
       <c r="H233" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -11792,10 +11801,10 @@
         <v>1277</v>
       </c>
       <c r="G234" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H234" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -11821,7 +11830,7 @@
         <v>952</v>
       </c>
       <c r="H235" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -11844,10 +11853,10 @@
         <v>1293</v>
       </c>
       <c r="G236" t="s">
-        <v>1593</v>
+        <v>1596</v>
       </c>
       <c r="H236" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -11867,13 +11876,13 @@
         <v>1314</v>
       </c>
       <c r="F237" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G237" t="s">
-        <v>1594</v>
+        <v>1597</v>
       </c>
       <c r="H237" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -11893,13 +11902,13 @@
         <v>1284</v>
       </c>
       <c r="F238" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G238" t="s">
-        <v>1595</v>
+        <v>1598</v>
       </c>
       <c r="H238" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -11919,13 +11928,13 @@
         <v>1299</v>
       </c>
       <c r="F239" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G239" t="s">
-        <v>1596</v>
+        <v>1599</v>
       </c>
       <c r="H239" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -11945,13 +11954,13 @@
         <v>1284</v>
       </c>
       <c r="F240" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G240" t="s">
-        <v>1597</v>
+        <v>1600</v>
       </c>
       <c r="H240" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -11971,13 +11980,13 @@
         <v>1284</v>
       </c>
       <c r="F241" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G241" t="s">
-        <v>1598</v>
+        <v>1601</v>
       </c>
       <c r="H241" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -11997,13 +12006,13 @@
         <v>1315</v>
       </c>
       <c r="F242" t="s">
-        <v>1393</v>
+        <v>1395</v>
       </c>
       <c r="G242" t="s">
-        <v>1599</v>
+        <v>1602</v>
       </c>
       <c r="H242" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -12029,7 +12038,7 @@
         <v>952</v>
       </c>
       <c r="H243" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -12052,10 +12061,10 @@
         <v>1277</v>
       </c>
       <c r="G244" t="s">
-        <v>1600</v>
+        <v>1603</v>
       </c>
       <c r="H244" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -12075,13 +12084,13 @@
         <v>1316</v>
       </c>
       <c r="F245" t="s">
-        <v>1394</v>
+        <v>1396</v>
       </c>
       <c r="G245" t="s">
-        <v>1601</v>
+        <v>1604</v>
       </c>
       <c r="H245" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -12101,13 +12110,13 @@
         <v>1284</v>
       </c>
       <c r="F246" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G246" t="s">
-        <v>1602</v>
+        <v>1605</v>
       </c>
       <c r="H246" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -12127,13 +12136,13 @@
         <v>1317</v>
       </c>
       <c r="F247" t="s">
-        <v>1395</v>
+        <v>1397</v>
       </c>
       <c r="G247" t="s">
-        <v>1603</v>
+        <v>1606</v>
       </c>
       <c r="H247" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -12159,7 +12168,7 @@
         <v>952</v>
       </c>
       <c r="H248" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -12185,7 +12194,7 @@
         <v>935</v>
       </c>
       <c r="H249" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -12211,7 +12220,7 @@
         <v>952</v>
       </c>
       <c r="H250" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -12237,7 +12246,7 @@
         <v>935</v>
       </c>
       <c r="H251" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -12257,13 +12266,13 @@
         <v>1309</v>
       </c>
       <c r="F252" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G252" t="s">
-        <v>1604</v>
+        <v>1607</v>
       </c>
       <c r="H252" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -12283,13 +12292,13 @@
         <v>1275</v>
       </c>
       <c r="F253" t="s">
-        <v>1396</v>
+        <v>1398</v>
       </c>
       <c r="G253" t="s">
-        <v>1605</v>
+        <v>1608</v>
       </c>
       <c r="H253" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -12309,13 +12318,13 @@
         <v>1304</v>
       </c>
       <c r="F254" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G254" t="s">
-        <v>1606</v>
+        <v>1609</v>
       </c>
       <c r="H254" t="s">
-        <v>1755</v>
+        <v>1758</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -12341,7 +12350,7 @@
         <v>963</v>
       </c>
       <c r="H255" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -12361,13 +12370,13 @@
         <v>1299</v>
       </c>
       <c r="F256" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G256" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="H256" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -12393,7 +12402,7 @@
         <v>1136</v>
       </c>
       <c r="H257" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -12413,13 +12422,13 @@
         <v>1275</v>
       </c>
       <c r="F258" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G258" t="s">
-        <v>1608</v>
+        <v>1611</v>
       </c>
       <c r="H258" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -12445,7 +12454,7 @@
         <v>952</v>
       </c>
       <c r="H259" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -12465,13 +12474,13 @@
         <v>1275</v>
       </c>
       <c r="F260" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G260" t="s">
-        <v>1609</v>
+        <v>1612</v>
       </c>
       <c r="H260" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -12494,10 +12503,10 @@
         <v>1293</v>
       </c>
       <c r="G261" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="H261" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -12520,10 +12529,10 @@
         <v>1336</v>
       </c>
       <c r="G262" t="s">
-        <v>1433</v>
+        <v>1436</v>
       </c>
       <c r="H262" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -12546,10 +12555,10 @@
         <v>1341</v>
       </c>
       <c r="G263" t="s">
-        <v>1611</v>
+        <v>1614</v>
       </c>
       <c r="H263" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -12569,13 +12578,13 @@
         <v>1284</v>
       </c>
       <c r="F264" t="s">
-        <v>1382</v>
+        <v>1366</v>
       </c>
       <c r="G264" t="s">
-        <v>1612</v>
+        <v>1615</v>
       </c>
       <c r="H264" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -12598,10 +12607,10 @@
         <v>1293</v>
       </c>
       <c r="G265" t="s">
-        <v>1610</v>
+        <v>1613</v>
       </c>
       <c r="H265" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -12627,7 +12636,7 @@
         <v>1142</v>
       </c>
       <c r="H266" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -12647,13 +12656,13 @@
         <v>1284</v>
       </c>
       <c r="F267" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G267" t="s">
         <v>972</v>
       </c>
       <c r="H267" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -12673,13 +12682,13 @@
         <v>1299</v>
       </c>
       <c r="F268" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G268" t="s">
-        <v>1613</v>
+        <v>1616</v>
       </c>
       <c r="H268" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -12705,7 +12714,7 @@
         <v>1164</v>
       </c>
       <c r="H269" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -12725,13 +12734,13 @@
         <v>1310</v>
       </c>
       <c r="F270" t="s">
-        <v>1397</v>
+        <v>1399</v>
       </c>
       <c r="G270" t="s">
-        <v>1614</v>
+        <v>1617</v>
       </c>
       <c r="H270" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -12751,13 +12760,13 @@
         <v>1293</v>
       </c>
       <c r="F271" t="s">
-        <v>1398</v>
+        <v>1400</v>
       </c>
       <c r="G271" t="s">
-        <v>1615</v>
+        <v>1618</v>
       </c>
       <c r="H271" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -12777,13 +12786,13 @@
         <v>1278</v>
       </c>
       <c r="F272" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G272" t="s">
-        <v>1616</v>
+        <v>1619</v>
       </c>
       <c r="H272" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -12803,13 +12812,13 @@
         <v>1285</v>
       </c>
       <c r="F273" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G273" t="s">
-        <v>1617</v>
+        <v>1620</v>
       </c>
       <c r="H273" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -12829,13 +12838,13 @@
         <v>1275</v>
       </c>
       <c r="F274" t="s">
-        <v>1399</v>
+        <v>1401</v>
       </c>
       <c r="G274" t="s">
-        <v>1618</v>
+        <v>1621</v>
       </c>
       <c r="H274" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -12855,13 +12864,13 @@
         <v>1275</v>
       </c>
       <c r="F275" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="G275" t="s">
-        <v>1619</v>
+        <v>1622</v>
       </c>
       <c r="H275" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -12881,13 +12890,13 @@
         <v>1303</v>
       </c>
       <c r="F276" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G276" t="s">
-        <v>1620</v>
+        <v>1623</v>
       </c>
       <c r="H276" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -12907,13 +12916,13 @@
         <v>1285</v>
       </c>
       <c r="F277" t="s">
-        <v>1400</v>
+        <v>1402</v>
       </c>
       <c r="G277" t="s">
-        <v>1621</v>
+        <v>1624</v>
       </c>
       <c r="H277" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -12933,13 +12942,13 @@
         <v>1278</v>
       </c>
       <c r="F278" t="s">
-        <v>1340</v>
+        <v>1343</v>
       </c>
       <c r="G278" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="H278" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -12959,13 +12968,13 @@
         <v>1284</v>
       </c>
       <c r="F279" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G279" t="s">
-        <v>1623</v>
+        <v>1626</v>
       </c>
       <c r="H279" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -12985,13 +12994,13 @@
         <v>1318</v>
       </c>
       <c r="F280" t="s">
-        <v>1401</v>
+        <v>1403</v>
       </c>
       <c r="G280" t="s">
-        <v>1624</v>
+        <v>1627</v>
       </c>
       <c r="H280" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -13014,10 +13023,10 @@
         <v>1284</v>
       </c>
       <c r="G281" t="s">
-        <v>1625</v>
+        <v>1628</v>
       </c>
       <c r="H281" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -13037,13 +13046,13 @@
         <v>1275</v>
       </c>
       <c r="F282" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G282" t="s">
-        <v>1626</v>
+        <v>1629</v>
       </c>
       <c r="H282" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -13066,10 +13075,10 @@
         <v>1373</v>
       </c>
       <c r="G283" t="s">
-        <v>1627</v>
+        <v>1630</v>
       </c>
       <c r="H283" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -13095,7 +13104,7 @@
         <v>1026</v>
       </c>
       <c r="H284" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -13118,10 +13127,10 @@
         <v>1339</v>
       </c>
       <c r="G285" t="s">
-        <v>1628</v>
+        <v>1631</v>
       </c>
       <c r="H285" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -13141,13 +13150,13 @@
         <v>1275</v>
       </c>
       <c r="F286" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="G286" t="s">
-        <v>1629</v>
+        <v>1632</v>
       </c>
       <c r="H286" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -13167,13 +13176,13 @@
         <v>1275</v>
       </c>
       <c r="F287" t="s">
-        <v>1402</v>
+        <v>1404</v>
       </c>
       <c r="G287" t="s">
-        <v>1630</v>
+        <v>1633</v>
       </c>
       <c r="H287" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -13199,7 +13208,7 @@
         <v>1119</v>
       </c>
       <c r="H288" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -13225,7 +13234,7 @@
         <v>952</v>
       </c>
       <c r="H289" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -13245,13 +13254,13 @@
         <v>1319</v>
       </c>
       <c r="F290" t="s">
-        <v>1403</v>
+        <v>1405</v>
       </c>
       <c r="G290" t="s">
-        <v>1631</v>
+        <v>1634</v>
       </c>
       <c r="H290" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -13271,13 +13280,13 @@
         <v>1275</v>
       </c>
       <c r="F291" t="s">
-        <v>1404</v>
+        <v>1406</v>
       </c>
       <c r="G291" t="s">
-        <v>1632</v>
+        <v>1635</v>
       </c>
       <c r="H291" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -13297,13 +13306,13 @@
         <v>1275</v>
       </c>
       <c r="F292" t="s">
-        <v>1405</v>
+        <v>1407</v>
       </c>
       <c r="G292" t="s">
-        <v>1633</v>
+        <v>1636</v>
       </c>
       <c r="H292" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -13329,7 +13338,7 @@
         <v>937</v>
       </c>
       <c r="H293" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -13349,13 +13358,13 @@
         <v>1275</v>
       </c>
       <c r="F294" t="s">
-        <v>1406</v>
+        <v>1408</v>
       </c>
       <c r="G294" t="s">
-        <v>1634</v>
+        <v>1637</v>
       </c>
       <c r="H294" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -13375,13 +13384,13 @@
         <v>1284</v>
       </c>
       <c r="F295" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G295" t="s">
-        <v>1635</v>
+        <v>1638</v>
       </c>
       <c r="H295" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -13401,13 +13410,13 @@
         <v>1320</v>
       </c>
       <c r="F296" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="G296" t="s">
-        <v>1636</v>
+        <v>1639</v>
       </c>
       <c r="H296" t="s">
-        <v>1760</v>
+        <v>1763</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -13427,13 +13436,13 @@
         <v>1275</v>
       </c>
       <c r="F297" t="s">
-        <v>1407</v>
+        <v>1409</v>
       </c>
       <c r="G297" t="s">
-        <v>1637</v>
+        <v>1640</v>
       </c>
       <c r="H297" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -13453,13 +13462,13 @@
         <v>1275</v>
       </c>
       <c r="F298" t="s">
-        <v>1386</v>
+        <v>1389</v>
       </c>
       <c r="G298" t="s">
-        <v>1638</v>
+        <v>1641</v>
       </c>
       <c r="H298" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -13485,7 +13494,7 @@
         <v>1201</v>
       </c>
       <c r="H299" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -13511,7 +13520,7 @@
         <v>1093</v>
       </c>
       <c r="H300" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -13537,7 +13546,7 @@
         <v>952</v>
       </c>
       <c r="H301" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -13563,7 +13572,7 @@
         <v>952</v>
       </c>
       <c r="H302" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -13583,13 +13592,13 @@
         <v>1284</v>
       </c>
       <c r="F303" t="s">
-        <v>1351</v>
+        <v>1401</v>
       </c>
       <c r="G303" t="s">
-        <v>1639</v>
+        <v>1642</v>
       </c>
       <c r="H303" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -13609,13 +13618,13 @@
         <v>1293</v>
       </c>
       <c r="F304" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G304" t="s">
-        <v>1640</v>
+        <v>1643</v>
       </c>
       <c r="H304" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -13641,7 +13650,7 @@
         <v>952</v>
       </c>
       <c r="H305" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -13667,7 +13676,7 @@
         <v>955</v>
       </c>
       <c r="H306" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -13690,10 +13699,10 @@
         <v>1275</v>
       </c>
       <c r="G307" t="s">
-        <v>1641</v>
+        <v>1644</v>
       </c>
       <c r="H307" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -13713,13 +13722,13 @@
         <v>1278</v>
       </c>
       <c r="F308" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="G308" t="s">
-        <v>1642</v>
+        <v>1645</v>
       </c>
       <c r="H308" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -13739,13 +13748,13 @@
         <v>1275</v>
       </c>
       <c r="F309" t="s">
-        <v>1402</v>
+        <v>1410</v>
       </c>
       <c r="G309" t="s">
-        <v>1643</v>
+        <v>1646</v>
       </c>
       <c r="H309" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -13771,7 +13780,7 @@
         <v>1004</v>
       </c>
       <c r="H310" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -13797,7 +13806,7 @@
         <v>937</v>
       </c>
       <c r="H311" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -13817,13 +13826,13 @@
         <v>1275</v>
       </c>
       <c r="F312" t="s">
-        <v>1357</v>
+        <v>1359</v>
       </c>
       <c r="G312" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="H312" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -13849,7 +13858,7 @@
         <v>952</v>
       </c>
       <c r="H313" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -13872,10 +13881,10 @@
         <v>1277</v>
       </c>
       <c r="G314" t="s">
-        <v>1645</v>
+        <v>1648</v>
       </c>
       <c r="H314" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -13895,13 +13904,13 @@
         <v>1299</v>
       </c>
       <c r="F315" t="s">
-        <v>1409</v>
+        <v>1411</v>
       </c>
       <c r="G315" t="s">
-        <v>1646</v>
+        <v>1649</v>
       </c>
       <c r="H315" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -13927,7 +13936,7 @@
         <v>1093</v>
       </c>
       <c r="H316" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -13947,13 +13956,13 @@
         <v>1284</v>
       </c>
       <c r="F317" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G317" t="s">
-        <v>1647</v>
+        <v>1650</v>
       </c>
       <c r="H317" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -13979,7 +13988,7 @@
         <v>1093</v>
       </c>
       <c r="H318" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -13999,13 +14008,13 @@
         <v>1275</v>
       </c>
       <c r="F319" t="s">
-        <v>1362</v>
+        <v>1346</v>
       </c>
       <c r="G319" t="s">
-        <v>1648</v>
+        <v>1651</v>
       </c>
       <c r="H319" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -14031,7 +14040,7 @@
         <v>952</v>
       </c>
       <c r="H320" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -14051,13 +14060,13 @@
         <v>1293</v>
       </c>
       <c r="F321" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G321" t="s">
-        <v>1649</v>
+        <v>1652</v>
       </c>
       <c r="H321" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -14077,13 +14086,13 @@
         <v>1275</v>
       </c>
       <c r="F322" t="s">
-        <v>1343</v>
+        <v>1345</v>
       </c>
       <c r="G322" t="s">
-        <v>1650</v>
+        <v>1653</v>
       </c>
       <c r="H322" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -14109,7 +14118,7 @@
         <v>952</v>
       </c>
       <c r="H323" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -14135,7 +14144,7 @@
         <v>937</v>
       </c>
       <c r="H324" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -14161,7 +14170,7 @@
         <v>1175</v>
       </c>
       <c r="H325" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -14187,7 +14196,7 @@
         <v>1093</v>
       </c>
       <c r="H326" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -14207,13 +14216,13 @@
         <v>1314</v>
       </c>
       <c r="F327" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G327" t="s">
-        <v>1651</v>
+        <v>1654</v>
       </c>
       <c r="H327" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -14236,10 +14245,10 @@
         <v>1277</v>
       </c>
       <c r="G328" t="s">
-        <v>1652</v>
+        <v>1655</v>
       </c>
       <c r="H328" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -14262,10 +14271,10 @@
         <v>1373</v>
       </c>
       <c r="G329" t="s">
-        <v>1653</v>
+        <v>1656</v>
       </c>
       <c r="H329" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -14285,13 +14294,13 @@
         <v>1278</v>
       </c>
       <c r="F330" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G330" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="H330" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -14317,7 +14326,7 @@
         <v>952</v>
       </c>
       <c r="H331" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -14343,7 +14352,7 @@
         <v>1093</v>
       </c>
       <c r="H332" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -14363,13 +14372,13 @@
         <v>1275</v>
       </c>
       <c r="F333" t="s">
-        <v>1410</v>
+        <v>1412</v>
       </c>
       <c r="G333" t="s">
-        <v>1655</v>
+        <v>1658</v>
       </c>
       <c r="H333" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -14389,13 +14398,13 @@
         <v>1284</v>
       </c>
       <c r="F334" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G334" t="s">
-        <v>1656</v>
+        <v>1659</v>
       </c>
       <c r="H334" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -14415,13 +14424,13 @@
         <v>1322</v>
       </c>
       <c r="F335" t="s">
-        <v>1411</v>
+        <v>1413</v>
       </c>
       <c r="G335" t="s">
-        <v>1657</v>
+        <v>1660</v>
       </c>
       <c r="H335" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -14444,10 +14453,10 @@
         <v>1339</v>
       </c>
       <c r="G336" t="s">
-        <v>1658</v>
+        <v>1661</v>
       </c>
       <c r="H336" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -14467,13 +14476,13 @@
         <v>1296</v>
       </c>
       <c r="F337" t="s">
-        <v>1412</v>
+        <v>1414</v>
       </c>
       <c r="G337" t="s">
-        <v>1659</v>
+        <v>1662</v>
       </c>
       <c r="H337" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -14493,13 +14502,13 @@
         <v>1284</v>
       </c>
       <c r="F338" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G338" t="s">
-        <v>1660</v>
+        <v>1663</v>
       </c>
       <c r="H338" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -14525,7 +14534,7 @@
         <v>935</v>
       </c>
       <c r="H339" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -14551,7 +14560,7 @@
         <v>1184</v>
       </c>
       <c r="H340" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -14574,10 +14583,10 @@
         <v>1277</v>
       </c>
       <c r="G341" t="s">
-        <v>1661</v>
+        <v>1664</v>
       </c>
       <c r="H341" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -14597,13 +14606,13 @@
         <v>1310</v>
       </c>
       <c r="F342" t="s">
-        <v>1413</v>
+        <v>1415</v>
       </c>
       <c r="G342" t="s">
-        <v>1662</v>
+        <v>1665</v>
       </c>
       <c r="H342" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -14623,13 +14632,13 @@
         <v>1310</v>
       </c>
       <c r="F343" t="s">
-        <v>1360</v>
+        <v>1340</v>
       </c>
       <c r="G343" t="s">
-        <v>1663</v>
+        <v>1666</v>
       </c>
       <c r="H343" t="s">
-        <v>1759</v>
+        <v>1762</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -14649,13 +14658,13 @@
         <v>1296</v>
       </c>
       <c r="F344" t="s">
-        <v>1414</v>
+        <v>1416</v>
       </c>
       <c r="G344" t="s">
-        <v>1664</v>
+        <v>1667</v>
       </c>
       <c r="H344" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -14681,7 +14690,7 @@
         <v>1093</v>
       </c>
       <c r="H345" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -14704,10 +14713,10 @@
         <v>1293</v>
       </c>
       <c r="G346" t="s">
-        <v>1665</v>
+        <v>1668</v>
       </c>
       <c r="H346" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -14727,13 +14736,13 @@
         <v>1316</v>
       </c>
       <c r="F347" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="G347" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="H347" t="s">
-        <v>1775</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -14759,7 +14768,7 @@
         <v>952</v>
       </c>
       <c r="H348" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -14779,13 +14788,13 @@
         <v>1299</v>
       </c>
       <c r="F349" t="s">
-        <v>1388</v>
+        <v>1391</v>
       </c>
       <c r="G349" t="s">
-        <v>1667</v>
+        <v>1670</v>
       </c>
       <c r="H349" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -14805,13 +14814,13 @@
         <v>1323</v>
       </c>
       <c r="F350" t="s">
-        <v>1415</v>
+        <v>1417</v>
       </c>
       <c r="G350" t="s">
-        <v>1668</v>
+        <v>1671</v>
       </c>
       <c r="H350" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -14834,10 +14843,10 @@
         <v>1367</v>
       </c>
       <c r="G351" t="s">
-        <v>1669</v>
+        <v>1672</v>
       </c>
       <c r="H351" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -14863,7 +14872,7 @@
         <v>1093</v>
       </c>
       <c r="H352" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -14883,13 +14892,13 @@
         <v>1275</v>
       </c>
       <c r="F353" t="s">
-        <v>1416</v>
+        <v>1418</v>
       </c>
       <c r="G353" t="s">
-        <v>1670</v>
+        <v>1673</v>
       </c>
       <c r="H353" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -14915,7 +14924,7 @@
         <v>955</v>
       </c>
       <c r="H354" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -14941,7 +14950,7 @@
         <v>1093</v>
       </c>
       <c r="H355" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="356" spans="1:8">
@@ -14961,13 +14970,13 @@
         <v>1275</v>
       </c>
       <c r="F356" t="s">
-        <v>1395</v>
+        <v>1419</v>
       </c>
       <c r="G356" t="s">
-        <v>1671</v>
+        <v>1674</v>
       </c>
       <c r="H356" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="357" spans="1:8">
@@ -14990,10 +14999,10 @@
         <v>1336</v>
       </c>
       <c r="G357" t="s">
-        <v>1622</v>
+        <v>1625</v>
       </c>
       <c r="H357" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -15013,13 +15022,13 @@
         <v>1321</v>
       </c>
       <c r="F358" t="s">
-        <v>1417</v>
+        <v>1420</v>
       </c>
       <c r="G358" t="s">
-        <v>1672</v>
+        <v>1675</v>
       </c>
       <c r="H358" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -15039,13 +15048,13 @@
         <v>1284</v>
       </c>
       <c r="F359" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G359" t="s">
-        <v>1673</v>
+        <v>1676</v>
       </c>
       <c r="H359" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -15065,13 +15074,13 @@
         <v>1284</v>
       </c>
       <c r="F360" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G360" t="s">
-        <v>1674</v>
+        <v>1677</v>
       </c>
       <c r="H360" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -15091,13 +15100,13 @@
         <v>1324</v>
       </c>
       <c r="F361" t="s">
-        <v>1418</v>
+        <v>1421</v>
       </c>
       <c r="G361" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="H361" t="s">
-        <v>1776</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -15117,13 +15126,13 @@
         <v>1297</v>
       </c>
       <c r="F362" t="s">
-        <v>1419</v>
+        <v>1401</v>
       </c>
       <c r="G362" t="s">
-        <v>1676</v>
+        <v>1679</v>
       </c>
       <c r="H362" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -15149,7 +15158,7 @@
         <v>1201</v>
       </c>
       <c r="H363" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -15169,13 +15178,13 @@
         <v>1278</v>
       </c>
       <c r="F364" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G364" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="H364" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -15201,7 +15210,7 @@
         <v>1241</v>
       </c>
       <c r="H365" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -15221,13 +15230,13 @@
         <v>1285</v>
       </c>
       <c r="F366" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="G366" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="H366" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -15250,10 +15259,10 @@
         <v>1336</v>
       </c>
       <c r="G367" t="s">
-        <v>1679</v>
+        <v>1682</v>
       </c>
       <c r="H367" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -15276,10 +15285,10 @@
         <v>1336</v>
       </c>
       <c r="G368" t="s">
-        <v>1680</v>
+        <v>1683</v>
       </c>
       <c r="H368" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -15305,7 +15314,7 @@
         <v>1093</v>
       </c>
       <c r="H369" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -15328,10 +15337,10 @@
         <v>1367</v>
       </c>
       <c r="G370" t="s">
-        <v>1681</v>
+        <v>1684</v>
       </c>
       <c r="H370" t="s">
-        <v>1752</v>
+        <v>1755</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -15357,7 +15366,7 @@
         <v>937</v>
       </c>
       <c r="H371" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -15377,13 +15386,13 @@
         <v>1297</v>
       </c>
       <c r="F372" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G372" t="s">
-        <v>1682</v>
+        <v>1685</v>
       </c>
       <c r="H372" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -15406,10 +15415,10 @@
         <v>1336</v>
       </c>
       <c r="G373" t="s">
-        <v>1683</v>
+        <v>1686</v>
       </c>
       <c r="H373" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -15429,13 +15438,13 @@
         <v>1284</v>
       </c>
       <c r="F374" t="s">
-        <v>1374</v>
+        <v>1422</v>
       </c>
       <c r="G374" t="s">
-        <v>1684</v>
+        <v>1687</v>
       </c>
       <c r="H374" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -15458,10 +15467,10 @@
         <v>1336</v>
       </c>
       <c r="G375" t="s">
-        <v>1685</v>
+        <v>1688</v>
       </c>
       <c r="H375" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -15481,13 +15490,13 @@
         <v>1284</v>
       </c>
       <c r="F376" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G376" t="s">
-        <v>1686</v>
+        <v>1689</v>
       </c>
       <c r="H376" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -15507,13 +15516,13 @@
         <v>1284</v>
       </c>
       <c r="F377" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G377" t="s">
-        <v>1687</v>
+        <v>1690</v>
       </c>
       <c r="H377" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -15536,10 +15545,10 @@
         <v>1284</v>
       </c>
       <c r="G378" t="s">
-        <v>1688</v>
+        <v>1691</v>
       </c>
       <c r="H378" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -15565,7 +15574,7 @@
         <v>1119</v>
       </c>
       <c r="H379" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -15585,13 +15594,13 @@
         <v>1278</v>
       </c>
       <c r="F380" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G380" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="H380" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -15611,13 +15620,13 @@
         <v>1278</v>
       </c>
       <c r="F381" t="s">
-        <v>1420</v>
+        <v>1423</v>
       </c>
       <c r="G381" t="s">
-        <v>1690</v>
+        <v>1693</v>
       </c>
       <c r="H381" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -15637,13 +15646,13 @@
         <v>1284</v>
       </c>
       <c r="F382" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G382" t="s">
-        <v>1691</v>
+        <v>1694</v>
       </c>
       <c r="H382" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -15663,13 +15672,13 @@
         <v>1325</v>
       </c>
       <c r="F383" t="s">
-        <v>1421</v>
+        <v>1424</v>
       </c>
       <c r="G383" t="s">
-        <v>1692</v>
+        <v>1695</v>
       </c>
       <c r="H383" t="s">
-        <v>1761</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -15695,7 +15704,7 @@
         <v>1069</v>
       </c>
       <c r="H384" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -15715,13 +15724,13 @@
         <v>1321</v>
       </c>
       <c r="F385" t="s">
-        <v>1422</v>
+        <v>1425</v>
       </c>
       <c r="G385" t="s">
-        <v>1693</v>
+        <v>1696</v>
       </c>
       <c r="H385" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -15741,13 +15750,13 @@
         <v>1326</v>
       </c>
       <c r="F386" t="s">
-        <v>1423</v>
+        <v>1426</v>
       </c>
       <c r="G386" t="s">
-        <v>1694</v>
+        <v>1697</v>
       </c>
       <c r="H386" t="s">
-        <v>1778</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -15767,13 +15776,13 @@
         <v>1327</v>
       </c>
       <c r="F387" t="s">
-        <v>1424</v>
+        <v>1427</v>
       </c>
       <c r="G387" t="s">
-        <v>1695</v>
+        <v>1698</v>
       </c>
       <c r="H387" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -15793,13 +15802,13 @@
         <v>1328</v>
       </c>
       <c r="F388" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="G388" t="s">
-        <v>1696</v>
+        <v>1699</v>
       </c>
       <c r="H388" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -15819,13 +15828,13 @@
         <v>1278</v>
       </c>
       <c r="F389" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="G389" t="s">
-        <v>1697</v>
+        <v>1700</v>
       </c>
       <c r="H389" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -15845,13 +15854,13 @@
         <v>1324</v>
       </c>
       <c r="F390" t="s">
-        <v>1425</v>
+        <v>1428</v>
       </c>
       <c r="G390" t="s">
-        <v>1698</v>
+        <v>1701</v>
       </c>
       <c r="H390" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -15877,7 +15886,7 @@
         <v>1000</v>
       </c>
       <c r="H391" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -15897,13 +15906,13 @@
         <v>1282</v>
       </c>
       <c r="F392" t="s">
-        <v>1426</v>
+        <v>1422</v>
       </c>
       <c r="G392" t="s">
-        <v>1699</v>
+        <v>1702</v>
       </c>
       <c r="H392" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -15929,7 +15938,7 @@
         <v>1069</v>
       </c>
       <c r="H393" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -15952,10 +15961,10 @@
         <v>1336</v>
       </c>
       <c r="G394" t="s">
-        <v>1700</v>
+        <v>1703</v>
       </c>
       <c r="H394" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -15975,13 +15984,13 @@
         <v>1284</v>
       </c>
       <c r="F395" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G395" t="s">
-        <v>1701</v>
+        <v>1704</v>
       </c>
       <c r="H395" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -16001,13 +16010,13 @@
         <v>1284</v>
       </c>
       <c r="F396" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="G396" t="s">
-        <v>1702</v>
+        <v>1705</v>
       </c>
       <c r="H396" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -16033,7 +16042,7 @@
         <v>1050</v>
       </c>
       <c r="H397" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -16059,7 +16068,7 @@
         <v>1093</v>
       </c>
       <c r="H398" t="s">
-        <v>1763</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -16085,7 +16094,7 @@
         <v>1093</v>
       </c>
       <c r="H399" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -16105,13 +16114,13 @@
         <v>1284</v>
       </c>
       <c r="F400" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G400" t="s">
-        <v>1703</v>
+        <v>1706</v>
       </c>
       <c r="H400" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -16131,13 +16140,13 @@
         <v>1278</v>
       </c>
       <c r="F401" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G401" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="H401" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -16157,13 +16166,13 @@
         <v>1293</v>
       </c>
       <c r="F402" t="s">
-        <v>1391</v>
+        <v>1393</v>
       </c>
       <c r="G402" t="s">
-        <v>1704</v>
+        <v>1707</v>
       </c>
       <c r="H402" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -16189,7 +16198,7 @@
         <v>972</v>
       </c>
       <c r="H403" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -16209,13 +16218,13 @@
         <v>1303</v>
       </c>
       <c r="F404" t="s">
-        <v>1362</v>
+        <v>1364</v>
       </c>
       <c r="G404" t="s">
-        <v>1496</v>
+        <v>1499</v>
       </c>
       <c r="H404" t="s">
-        <v>1779</v>
+        <v>1782</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -16241,7 +16250,7 @@
         <v>1228</v>
       </c>
       <c r="H405" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -16261,13 +16270,13 @@
         <v>1293</v>
       </c>
       <c r="F406" t="s">
-        <v>1336</v>
+        <v>1348</v>
       </c>
       <c r="G406" t="s">
-        <v>1705</v>
+        <v>1708</v>
       </c>
       <c r="H406" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -16287,13 +16296,13 @@
         <v>1284</v>
       </c>
       <c r="F407" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G407" t="s">
-        <v>1706</v>
+        <v>1709</v>
       </c>
       <c r="H407" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -16316,10 +16325,10 @@
         <v>1336</v>
       </c>
       <c r="G408" t="s">
-        <v>1707</v>
+        <v>1710</v>
       </c>
       <c r="H408" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -16339,13 +16348,13 @@
         <v>1324</v>
       </c>
       <c r="F409" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G409" t="s">
-        <v>1489</v>
+        <v>1492</v>
       </c>
       <c r="H409" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -16371,7 +16380,7 @@
         <v>1093</v>
       </c>
       <c r="H410" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -16391,13 +16400,13 @@
         <v>1293</v>
       </c>
       <c r="F411" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="G411" t="s">
-        <v>1708</v>
+        <v>1711</v>
       </c>
       <c r="H411" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -16417,13 +16426,13 @@
         <v>1284</v>
       </c>
       <c r="F412" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G412" t="s">
-        <v>1709</v>
+        <v>1712</v>
       </c>
       <c r="H412" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -16443,13 +16452,13 @@
         <v>1284</v>
       </c>
       <c r="F413" t="s">
-        <v>1284</v>
+        <v>1277</v>
       </c>
       <c r="G413" t="s">
         <v>972</v>
       </c>
       <c r="H413" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -16475,7 +16484,7 @@
         <v>1235</v>
       </c>
       <c r="H414" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -16495,13 +16504,13 @@
         <v>1323</v>
       </c>
       <c r="F415" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="G415" t="s">
-        <v>1710</v>
+        <v>1713</v>
       </c>
       <c r="H415" t="s">
-        <v>1766</v>
+        <v>1769</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -16524,10 +16533,10 @@
         <v>1366</v>
       </c>
       <c r="G416" t="s">
-        <v>1711</v>
+        <v>1714</v>
       </c>
       <c r="H416" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -16550,10 +16559,10 @@
         <v>1367</v>
       </c>
       <c r="G417" t="s">
-        <v>1712</v>
+        <v>1715</v>
       </c>
       <c r="H417" t="s">
-        <v>1765</v>
+        <v>1768</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -16573,13 +16582,13 @@
         <v>1284</v>
       </c>
       <c r="F418" t="s">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="G418" t="s">
-        <v>1713</v>
+        <v>1716</v>
       </c>
       <c r="H418" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -16599,13 +16608,13 @@
         <v>1329</v>
       </c>
       <c r="F419" t="s">
-        <v>1398</v>
+        <v>1431</v>
       </c>
       <c r="G419" t="s">
-        <v>1714</v>
+        <v>1717</v>
       </c>
       <c r="H419" t="s">
-        <v>1780</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -16625,13 +16634,13 @@
         <v>1284</v>
       </c>
       <c r="F420" t="s">
-        <v>1275</v>
+        <v>1284</v>
       </c>
       <c r="G420" t="s">
         <v>1241</v>
       </c>
       <c r="H420" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -16651,13 +16660,13 @@
         <v>1284</v>
       </c>
       <c r="F421" t="s">
-        <v>1277</v>
+        <v>1284</v>
       </c>
       <c r="G421" t="s">
         <v>1242</v>
       </c>
       <c r="H421" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -16680,10 +16689,10 @@
         <v>1336</v>
       </c>
       <c r="G422" t="s">
-        <v>1715</v>
+        <v>1718</v>
       </c>
       <c r="H422" t="s">
-        <v>1767</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -16703,13 +16712,13 @@
         <v>1294</v>
       </c>
       <c r="F423" t="s">
-        <v>1380</v>
+        <v>1381</v>
       </c>
       <c r="G423" t="s">
-        <v>1716</v>
+        <v>1719</v>
       </c>
       <c r="H423" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -16729,13 +16738,13 @@
         <v>1284</v>
       </c>
       <c r="F424" t="s">
-        <v>1364</v>
+        <v>1357</v>
       </c>
       <c r="G424" t="s">
-        <v>1717</v>
+        <v>1720</v>
       </c>
       <c r="H424" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -16755,13 +16764,13 @@
         <v>1293</v>
       </c>
       <c r="F425" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G425" t="s">
-        <v>1718</v>
+        <v>1721</v>
       </c>
       <c r="H425" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -16787,7 +16796,7 @@
         <v>937</v>
       </c>
       <c r="H426" t="s">
-        <v>1754</v>
+        <v>1757</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -16813,7 +16822,7 @@
         <v>1069</v>
       </c>
       <c r="H427" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -16839,7 +16848,7 @@
         <v>1246</v>
       </c>
       <c r="H428" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -16859,13 +16868,13 @@
         <v>1297</v>
       </c>
       <c r="F429" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G429" t="s">
-        <v>1719</v>
+        <v>1722</v>
       </c>
       <c r="H429" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -16885,13 +16894,13 @@
         <v>1329</v>
       </c>
       <c r="F430" t="s">
-        <v>1429</v>
+        <v>1432</v>
       </c>
       <c r="G430" t="s">
-        <v>1720</v>
+        <v>1723</v>
       </c>
       <c r="H430" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -16911,13 +16920,13 @@
         <v>1284</v>
       </c>
       <c r="F431" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G431" t="s">
-        <v>1721</v>
+        <v>1724</v>
       </c>
       <c r="H431" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -16940,10 +16949,10 @@
         <v>1277</v>
       </c>
       <c r="G432" t="s">
-        <v>1722</v>
+        <v>1725</v>
       </c>
       <c r="H432" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -16963,13 +16972,13 @@
         <v>1284</v>
       </c>
       <c r="F433" t="s">
-        <v>1370</v>
+        <v>1358</v>
       </c>
       <c r="G433" t="s">
-        <v>1723</v>
+        <v>1726</v>
       </c>
       <c r="H433" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -16989,13 +16998,13 @@
         <v>1293</v>
       </c>
       <c r="F434" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G434" t="s">
-        <v>1724</v>
+        <v>1727</v>
       </c>
       <c r="H434" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -17015,13 +17024,13 @@
         <v>1296</v>
       </c>
       <c r="F435" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="G435" t="s">
-        <v>1725</v>
+        <v>1728</v>
       </c>
       <c r="H435" t="s">
-        <v>1781</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -17041,13 +17050,13 @@
         <v>1296</v>
       </c>
       <c r="F436" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="G436" t="s">
-        <v>1726</v>
+        <v>1729</v>
       </c>
       <c r="H436" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -17073,7 +17082,7 @@
         <v>972</v>
       </c>
       <c r="H437" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -17093,13 +17102,13 @@
         <v>1293</v>
       </c>
       <c r="F438" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G438" t="s">
-        <v>1727</v>
+        <v>1730</v>
       </c>
       <c r="H438" t="s">
-        <v>1777</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -17119,13 +17128,13 @@
         <v>1284</v>
       </c>
       <c r="F439" t="s">
-        <v>1430</v>
+        <v>1433</v>
       </c>
       <c r="G439" t="s">
-        <v>1728</v>
+        <v>1731</v>
       </c>
       <c r="H439" t="s">
-        <v>1768</v>
+        <v>1771</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -17151,7 +17160,7 @@
         <v>952</v>
       </c>
       <c r="H440" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -17174,10 +17183,10 @@
         <v>1275</v>
       </c>
       <c r="G441" t="s">
-        <v>1729</v>
+        <v>1732</v>
       </c>
       <c r="H441" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -17203,7 +17212,7 @@
         <v>1093</v>
       </c>
       <c r="H442" t="s">
-        <v>1750</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -17226,10 +17235,10 @@
         <v>1277</v>
       </c>
       <c r="G443" t="s">
-        <v>1507</v>
+        <v>1510</v>
       </c>
       <c r="H443" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -17255,7 +17264,7 @@
         <v>1228</v>
       </c>
       <c r="H444" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -17278,10 +17287,10 @@
         <v>1375</v>
       </c>
       <c r="G445" t="s">
-        <v>1730</v>
+        <v>1733</v>
       </c>
       <c r="H445" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -17301,13 +17310,13 @@
         <v>1278</v>
       </c>
       <c r="F446" t="s">
-        <v>1408</v>
+        <v>1387</v>
       </c>
       <c r="G446" t="s">
-        <v>1731</v>
+        <v>1734</v>
       </c>
       <c r="H446" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -17327,13 +17336,13 @@
         <v>1293</v>
       </c>
       <c r="F447" t="s">
-        <v>1293</v>
+        <v>1277</v>
       </c>
       <c r="G447" t="s">
-        <v>1732</v>
+        <v>1735</v>
       </c>
       <c r="H447" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -17356,10 +17365,10 @@
         <v>1336</v>
       </c>
       <c r="G448" t="s">
-        <v>1733</v>
+        <v>1736</v>
       </c>
       <c r="H448" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -17379,13 +17388,13 @@
         <v>1331</v>
       </c>
       <c r="F449" t="s">
-        <v>1431</v>
+        <v>1434</v>
       </c>
       <c r="G449" t="s">
-        <v>1734</v>
+        <v>1737</v>
       </c>
       <c r="H449" t="s">
-        <v>1782</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -17408,10 +17417,10 @@
         <v>1336</v>
       </c>
       <c r="G450" t="s">
-        <v>1735</v>
+        <v>1738</v>
       </c>
       <c r="H450" t="s">
-        <v>1756</v>
+        <v>1759</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -17434,10 +17443,10 @@
         <v>1336</v>
       </c>
       <c r="G451" t="s">
-        <v>1736</v>
+        <v>1739</v>
       </c>
       <c r="H451" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -17457,13 +17466,13 @@
         <v>1284</v>
       </c>
       <c r="F452" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G452" t="s">
-        <v>1737</v>
+        <v>1740</v>
       </c>
       <c r="H452" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -17483,13 +17492,13 @@
         <v>1293</v>
       </c>
       <c r="F453" t="s">
-        <v>1336</v>
+        <v>1362</v>
       </c>
       <c r="G453" t="s">
-        <v>1738</v>
+        <v>1741</v>
       </c>
       <c r="H453" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -17509,13 +17518,13 @@
         <v>1321</v>
       </c>
       <c r="F454" t="s">
-        <v>1408</v>
+        <v>1381</v>
       </c>
       <c r="G454" t="s">
-        <v>1739</v>
+        <v>1742</v>
       </c>
       <c r="H454" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -17535,13 +17544,13 @@
         <v>1293</v>
       </c>
       <c r="F455" t="s">
-        <v>1432</v>
+        <v>1435</v>
       </c>
       <c r="G455" t="s">
-        <v>1740</v>
+        <v>1743</v>
       </c>
       <c r="H455" t="s">
-        <v>1751</v>
+        <v>1754</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -17567,7 +17576,7 @@
         <v>952</v>
       </c>
       <c r="H456" t="s">
-        <v>1769</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -17587,13 +17596,13 @@
         <v>1333</v>
       </c>
       <c r="F457" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="G457" t="s">
-        <v>1741</v>
+        <v>1744</v>
       </c>
       <c r="H457" t="s">
-        <v>1774</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -17613,13 +17622,13 @@
         <v>1278</v>
       </c>
       <c r="F458" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G458" t="s">
-        <v>1654</v>
+        <v>1657</v>
       </c>
       <c r="H458" t="s">
-        <v>1772</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -17642,10 +17651,10 @@
         <v>1341</v>
       </c>
       <c r="G459" t="s">
-        <v>1742</v>
+        <v>1745</v>
       </c>
       <c r="H459" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -17668,10 +17677,10 @@
         <v>1277</v>
       </c>
       <c r="G460" t="s">
-        <v>1743</v>
+        <v>1746</v>
       </c>
       <c r="H460" t="s">
-        <v>1783</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -17694,10 +17703,10 @@
         <v>1293</v>
       </c>
       <c r="G461" t="s">
-        <v>1744</v>
+        <v>1747</v>
       </c>
       <c r="H461" t="s">
-        <v>1748</v>
+        <v>1751</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -17723,7 +17732,7 @@
         <v>952</v>
       </c>
       <c r="H462" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -17743,13 +17752,13 @@
         <v>1321</v>
       </c>
       <c r="F463" t="s">
-        <v>1399</v>
+        <v>1372</v>
       </c>
       <c r="G463" t="s">
-        <v>1745</v>
+        <v>1748</v>
       </c>
       <c r="H463" t="s">
-        <v>1764</v>
+        <v>1767</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -17769,13 +17778,13 @@
         <v>1303</v>
       </c>
       <c r="F464" t="s">
-        <v>1358</v>
+        <v>1360</v>
       </c>
       <c r="G464" t="s">
-        <v>1746</v>
+        <v>1749</v>
       </c>
       <c r="H464" t="s">
-        <v>1749</v>
+        <v>1752</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -17798,10 +17807,10 @@
         <v>1277</v>
       </c>
       <c r="G465" t="s">
-        <v>1747</v>
+        <v>1750</v>
       </c>
       <c r="H465" t="s">
-        <v>1753</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
